--- a/elements/hardware_design/Elements.xlsx
+++ b/elements/hardware_design/Elements.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="440" windowWidth="39920" windowHeight="24700" tabRatio="952"/>
+    <workbookView xWindow="15060" yWindow="100" windowWidth="39920" windowHeight="24700" tabRatio="952"/>
   </bookViews>
   <sheets>
     <sheet name="Elements v0.21" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="190">
   <si>
     <t>Index</t>
   </si>
@@ -587,6 +587,9 @@
   <si>
     <t>106.4 x 164.5 ; 2 layers</t>
   </si>
+  <si>
+    <t>PCB Specifications</t>
+  </si>
 </sst>
 </file>
 
@@ -701,8 +704,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -748,6 +759,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -757,17 +771,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1099,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1117,16 +1136,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1002" ht="18">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:1002">
       <c r="A2" s="3" t="s">
@@ -2149,15 +2168,15 @@
       <c r="ALN2"/>
     </row>
     <row r="3" spans="1:1002" ht="12.75" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="7"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -32774,17 +32793,17 @@
       <c r="ALN37"/>
     </row>
     <row r="38" spans="1:1002" ht="12.75" customHeight="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="8"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -40906,7 +40925,7 @@
     </row>
     <row r="49" spans="1:1024">
       <c r="A49" s="9" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="9"/>
@@ -40916,18 +40935,18 @@
       <c r="G49" s="10"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
